--- a/temp/admission.xlsx
+++ b/temp/admission.xlsx
@@ -342,6 +342,14 @@
         <v>Año</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2" t="str">
+        <v>ANTEZANA YANA, Modificado</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/temp/admission.xlsx
+++ b/temp/admission.xlsx
@@ -350,6 +350,78 @@
         <v>ANTEZANA YANA, Modificado</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3">
+        <v>9</v>
+      </c>
+      <c r="B3" t="str">
+        <v>ANTEZANA YANA, Modificado</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4" t="str">
+        <v>ANTEZANA YANA, Modificado</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" t="str">
+        <v>ANTEZANA YANA, Modificado</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="str">
+        <v>ANTEZANA YANA, Modificado</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="str">
+        <v>ANTEZANA YANA, Modificado</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="str">
+        <v>ANTEZANA YANA, Modificado</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="str">
+        <v>ANTEZANA YANA, Modificado</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="str">
+        <v>ANTEZANA YANA, Modificado</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="str">
+        <v>ANTEZANA YANA, Modificado</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/temp/admission.xlsx
+++ b/temp/admission.xlsx
@@ -344,82 +344,10 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>ANTEZANA YANA, Modificado</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>9</v>
-      </c>
-      <c r="B3" t="str">
-        <v>ANTEZANA YANA, Modificado</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>8</v>
-      </c>
-      <c r="B4" t="str">
-        <v>ANTEZANA YANA, Modificado</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>7</v>
-      </c>
-      <c r="B5" t="str">
-        <v>ANTEZANA YANA, Modificado</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" t="str">
-        <v>ANTEZANA YANA, Modificado</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="str">
-        <v>ANTEZANA YANA, Modificado</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" t="str">
-        <v>ANTEZANA YANA, Modificado</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9" t="str">
-        <v>ANTEZANA YANA, Modificado</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="str">
-        <v>ANTEZANA YANA, Modificado</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="str">
-        <v>ANTEZANA YANA, Modificado</v>
+        <v>ANTEZANA YANA, Paul Yoel</v>
       </c>
     </row>
   </sheetData>
